--- a/Project_plan.xlsx
+++ b/Project_plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -84,27 +84,6 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>Develop user stories 6</t>
-  </si>
-  <si>
-    <t>Develop user stories 7</t>
-  </si>
-  <si>
-    <t>Develop user stories 8</t>
-  </si>
-  <si>
-    <t>Develop user stories 9</t>
-  </si>
-  <si>
-    <t>Develop user stories 10</t>
-  </si>
-  <si>
-    <t>Develop user stories 11</t>
-  </si>
-  <si>
-    <t>Tidy code add Extra funtionality</t>
-  </si>
-  <si>
     <t>Write-up</t>
   </si>
   <si>
@@ -126,10 +105,55 @@
     <t>Develop user stories 1, 2, 3 and DEV2</t>
   </si>
   <si>
-    <t>Develop user stories DEV1, 4 and 5</t>
-  </si>
-  <si>
     <t>Set up GCM API</t>
+  </si>
+  <si>
+    <t>Re-writeing project code</t>
+  </si>
+  <si>
+    <t>Researched topics discussed in meeting</t>
+  </si>
+  <si>
+    <t>Uninstalled Android studio got newer version</t>
+  </si>
+  <si>
+    <t>Fix Emulator</t>
+  </si>
+  <si>
+    <t>Try phone</t>
+  </si>
+  <si>
+    <t>Archetecture chapter tidy</t>
+  </si>
+  <si>
+    <t>Vancouver referencing research</t>
+  </si>
+  <si>
+    <t>Storm Emma</t>
+  </si>
+  <si>
+    <t>Develop user stories DEV1, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>Genymotion tester</t>
+  </si>
+  <si>
+    <t>Wrote Hello World Code</t>
+  </si>
+  <si>
+    <t>Tested Emulator</t>
+  </si>
+  <si>
+    <t>Finish Hello world</t>
+  </si>
+  <si>
+    <t>Start My own code again</t>
+  </si>
+  <si>
+    <t>Develop user stories 7, 8, 9</t>
+  </si>
+  <si>
+    <t>Develop user stories 10, 11</t>
   </si>
 </sst>
 </file>
@@ -160,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -222,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -239,6 +269,9 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,8 +580,8 @@
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" customWidth="1"/>
@@ -576,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="6"/>
@@ -678,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>17</v>
@@ -705,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -728,43 +761,44 @@
         <v>43150</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="F8" t="s">
+      <c r="D8" s="16"/>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43157</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13">
-        <v>43157</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -776,20 +810,26 @@
         <v>43164</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
+      <c r="D10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -800,68 +840,65 @@
         <v>43171</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>43178</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>43185</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -872,127 +909,172 @@
         <v>43192</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15">
+      <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="14">
         <v>43199</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16">
+      <c r="A16" s="10">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="14">
         <v>43206</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17">
+      <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="14">
         <v>43213</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14">
+        <v>43220</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>32</v>
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43197</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="9" t="s">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="10" t="s">
+    <row r="25" spans="1:10">
+      <c r="B25" s="10" t="s">
         <v>2</v>
       </c>
     </row>
